--- a/HLR and Testcase/hlr for problem user.xlsx
+++ b/HLR and Testcase/hlr for problem user.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62CA724-3BA3-422C-968D-9784ABD66647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B61380-EE04-437F-8C5D-CF53E70ACD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="164">
   <si>
     <t>functionality id</t>
   </si>
@@ -45,21 +45,12 @@
     <t>while clicking on the login button, it is login properly and also open the new page.</t>
   </si>
   <si>
-    <t>check menu button</t>
-  </si>
-  <si>
-    <t>while clicking on the menu button, it is working properly and also had opened.</t>
-  </si>
-  <si>
     <t>check all items</t>
   </si>
   <si>
     <t>check about</t>
   </si>
   <si>
-    <t>while clicking on the all items, it is working properly, but when clicking about show a error no 404</t>
-  </si>
-  <si>
     <t>check logout button</t>
   </si>
   <si>
@@ -177,15 +168,9 @@
     <t>while clicking on the all items, it is working properly.</t>
   </si>
   <si>
-    <t>while clicking on the reset app state, it is not working properly.</t>
-  </si>
-  <si>
     <t>check add to cart button with product</t>
   </si>
   <si>
-    <t>while clicking on add to card button with product, some product add to cart it is working and some product add to cart it is not working.</t>
-  </si>
-  <si>
     <t>same as 29 id</t>
   </si>
   <si>
@@ -208,13 +193,422 @@
   </si>
   <si>
     <t>while clicking on linkedin icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Functionality ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>check website Url</t>
+  </si>
+  <si>
+    <t>internet and browser must be in the working condition</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>To open the website properly</t>
+  </si>
+  <si>
+    <t>as per the expected result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>check login button with correct username and password</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button</t>
+  </si>
+  <si>
+    <t>user dashboard should be properly opened with the user details</t>
+  </si>
+  <si>
+    <t>as per the expected result it is getting logged in but the user dashboard details are not show properly</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>user name: problem_user
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with blank username and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: 
+password: </t>
+  </si>
+  <si>
+    <t>to display the proper message</t>
+  </si>
+  <si>
+    <t>it is not showing the proper validation message</t>
+  </si>
+  <si>
+    <t>check login button with correct username and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: problem_user
+password: </t>
+  </si>
+  <si>
+    <t>check login button with blank username and correct password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with username having special characters and correct password</t>
+  </si>
+  <si>
+    <t>user name: problem_user@@
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with correct username and having special characters with password</t>
+  </si>
+  <si>
+    <t>user name: problem_user
+password: secret_sauce@@</t>
+  </si>
+  <si>
+    <t>check login button with username having special characters and password as blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: problem_user@@
+password: </t>
+  </si>
+  <si>
+    <t>check login button with blank username and having special characters with password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret_sauce@@</t>
+  </si>
+  <si>
+    <t>check login button with username having digit and correct password</t>
+  </si>
+  <si>
+    <t>user name: problem_user123
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with correct user name and having digit with password</t>
+  </si>
+  <si>
+    <t>user name: problem_user
+password: secret_sauce123</t>
+  </si>
+  <si>
+    <t>check login button with username having white space between them and correct password</t>
+  </si>
+  <si>
+    <t>user name: problem user
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with correct username and white space between them in password</t>
+  </si>
+  <si>
+    <t>user name: problem_user
+password: secret sauce</t>
+  </si>
+  <si>
+    <t>check login button with username having white space between them and password as blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: problem user
+password: </t>
+  </si>
+  <si>
+    <t>check login button with username as blank and white space between them in password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret sauce</t>
+  </si>
+  <si>
+    <t>check side menu button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu</t>
+  </si>
+  <si>
+    <t>side menu is getting opened</t>
+  </si>
+  <si>
+    <t>as per expected result</t>
+  </si>
+  <si>
+    <t>check sidemenu button</t>
+  </si>
+  <si>
+    <t>while clicking on the sidemenu button, it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on all items</t>
+  </si>
+  <si>
+    <t>while clicking on all items it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on about</t>
+  </si>
+  <si>
+    <t>while clicking on about it is working properly but while click about show a error no 404</t>
+  </si>
+  <si>
+    <t>while clicking on the all items, it is working properly, but while clicking about show a error no 404</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on logout button</t>
+  </si>
+  <si>
+    <t>while clicking on logout button it is working properly and also had loggedout</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on reset app state</t>
+  </si>
+  <si>
+    <t>while clicking on the reset app state, it is working properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on logout button it is working properly </t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on close icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on close icon it is working properly </t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon</t>
+  </si>
+  <si>
+    <t>while clicking on close icon it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on continue shopping button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button</t>
+  </si>
+  <si>
+    <t>while clicking on close icon it is working properly and also write a first name and zip code it is typing, but when write a last name it is not typing.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button
+6) click on cancel button</t>
+  </si>
+  <si>
+    <t>while clicking on cancel button it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>same as 25 test case id</t>
+  </si>
+  <si>
+    <t>same as 23 test case id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+</t>
+  </si>
+  <si>
+    <t>while clicking on close icon it is working properly but when clicking on dropdown arrow, it it not working.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+5) check dropdown options
+</t>
+  </si>
+  <si>
+    <t>while clicking on dropdown options its all not working</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on image</t>
+  </si>
+  <si>
+    <t>while clicking on product link, it is working properly, but when new page open status show product was not found.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button</t>
+  </si>
+  <si>
+    <t>while clicking on add to cart button, it is working properly and has also added to cart.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button
+6) click on remove button</t>
+  </si>
+  <si>
+    <t>while clicking on remove button  it is not working and also not removed from cart</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on back to product</t>
+  </si>
+  <si>
+    <t>while clicking on back to product it is  working properly</t>
+  </si>
+  <si>
+    <t>while clicking on back to product it is  working properly but when new page open status show product was not found.</t>
+  </si>
+  <si>
+    <t>while clicking on the image, it is working properly, but when open a new page different image show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on add to card button with product, some product add to cart and some product not add to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on add to cart button with product, some product add to cart and some product not add to cart </t>
+  </si>
+  <si>
+    <t>same as 31 test case id</t>
+  </si>
+  <si>
+    <t>while clicking on add to cart button it is working properly and also had to opened</t>
+  </si>
+  <si>
+    <t>while clicking on remove button with product it is working properly and also removed from the cart</t>
+  </si>
+  <si>
+    <t>same as 23 and 27 test case id</t>
+  </si>
+  <si>
+    <t>same as 24 test case id</t>
+  </si>
+  <si>
+    <t>same as 26 test case id</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on continue button</t>
+  </si>
+  <si>
+    <t>while clicking on continue button it is not working because in fill detail last name are not write or type</t>
+  </si>
+  <si>
+    <t>while clicking on continue button it is not working because in fill detail last name are not write or type.</t>
+  </si>
+  <si>
+    <t>while clicking on twitter icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>while clicking on facebook icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>while clicking on linkedin icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as 19 test case id </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +655,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -304,11 +712,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -370,6 +791,97 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +1272,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -771,10 +1283,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -782,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -793,21 +1305,21 @@
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>23</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>51</v>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -815,10 +1327,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -826,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -837,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -848,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -859,10 +1371,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -870,10 +1382,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -881,10 +1393,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -892,10 +1404,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -903,10 +1415,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -914,10 +1426,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -925,10 +1437,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -936,10 +1448,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -947,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -958,10 +1470,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -969,10 +1481,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -980,10 +1492,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -991,10 +1503,10 @@
         <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1002,10 +1514,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1013,10 +1525,10 @@
         <v>64</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1024,10 +1536,10 @@
         <v>65</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1035,10 +1547,10 @@
         <v>66</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1046,10 +1558,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1057,10 +1569,10 @@
         <v>68</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1068,10 +1580,10 @@
         <v>69</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1079,10 +1591,10 @@
         <v>70</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1090,10 +1602,10 @@
         <v>71</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1139,12 +1651,1389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="24" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>20</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41">
+        <v>21</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>19</v>
+      </c>
+      <c r="B20" s="36">
+        <v>22</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13">
+        <v>23</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
+        <v>25</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13">
+        <v>26</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41">
+        <v>27</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41">
+        <v>28</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>26</v>
+      </c>
+      <c r="B27" s="36">
+        <v>29</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13">
+        <v>30</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="41">
+        <v>28</v>
+      </c>
+      <c r="B29" s="41">
+        <v>31</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="41">
+        <v>29</v>
+      </c>
+      <c r="B30" s="41">
+        <v>32</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41">
+        <v>33</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36">
+        <v>40</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="41">
+        <v>32</v>
+      </c>
+      <c r="B33" s="41">
+        <v>41</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36">
+        <v>42</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
+        <v>34</v>
+      </c>
+      <c r="B35" s="41">
+        <v>43</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <v>35</v>
+      </c>
+      <c r="B36" s="41">
+        <v>60</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="41">
+        <v>36</v>
+      </c>
+      <c r="B37" s="41">
+        <v>61</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36">
+        <v>62</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
+        <v>63</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
+        <v>39</v>
+      </c>
+      <c r="B40" s="47">
+        <v>64</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A41" s="41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="41">
+        <v>65</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="41">
+        <v>41</v>
+      </c>
+      <c r="B42" s="41">
+        <v>66</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36">
+        <v>67</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13">
+        <v>68</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13">
+        <v>69</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="55">
+        <v>45</v>
+      </c>
+      <c r="B46" s="55">
+        <v>70</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="21" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="58">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
+        <v>71</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
